--- a/data/Genotype_data/Germination_Hits_Genome_table.xlsx
+++ b/data/Genotype_data/Germination_Hits_Genome_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karl\git\BarleyGermination-KK\data\Genotype_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9C451B01-3925-4907-9053-E6FE1A4BC4E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E5395C10-5639-4BD5-82DE-EFAB7200B7BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10960"/>
   </bookViews>
   <sheets>
     <sheet name="Germination_Hits_Genome" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="98">
   <si>
     <t>Chromosome</t>
   </si>
@@ -31,12 +31,6 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>JHI-Hv50k-2016-28251</t>
-  </si>
-  <si>
-    <t>chr1H:374895005..376895007</t>
-  </si>
-  <si>
     <t>JHI-Hv50k-2016-73697</t>
   </si>
   <si>
@@ -145,12 +139,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>14 kDa proline-rich protein DC2.15, Bifunctional inhibitor/lipid-transfer protein/seed storage 2S albumin superfamily protein</t>
-  </si>
-  <si>
-    <t>HORVU.MOREX.r2.1HG0044200, HORVU.MOREX.r2.1HG0044320</t>
-  </si>
-  <si>
     <t>PpD-D1</t>
   </si>
   <si>
@@ -167,9 +155,6 @@
   </si>
   <si>
     <t>Arogenate dehydratase</t>
-  </si>
-  <si>
-    <t>HORVU.MOREX.r2.2HG0088340</t>
   </si>
   <si>
     <t>Anthocyanian development in roots and stems, stress response</t>
@@ -1187,24 +1172,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="36.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
     <col min="7" max="7" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1213,18 +1199,18 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>375895006</v>
+        <v>24211311</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1233,18 +1219,33 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>24211311</v>
+        <v>24228737</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1259,30 +1260,15 @@
         <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24228737</v>
+        <v>577412613</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1290,20 +1276,23 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1311,28 +1300,28 @@
         <v>577412613</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
         <v>53</v>
       </c>
       <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1340,33 +1329,33 @@
         <v>577412613</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>577412613</v>
+        <v>540936436</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1375,27 +1364,24 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>540936436</v>
+        <v>9192492</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1404,24 +1390,30 @@
         <v>12</v>
       </c>
       <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" t="s">
         <v>63</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>9192492</v>
+        <v>9491790</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1435,25 +1427,22 @@
       <c r="J9" t="s">
         <v>66</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>67</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
         <v>68</v>
       </c>
-      <c r="M9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>9491790</v>
+        <v>9768925</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -1461,28 +1450,13 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>9768925</v>
+        <v>475337693</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1490,13 +1464,28 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>475337693</v>
+        <v>475342665</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1505,27 +1494,30 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
         <v>74</v>
       </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>475342665</v>
+        <v>475453779</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -1534,30 +1526,30 @@
         <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M13" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>475453779</v>
+        <v>477497810</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -1566,30 +1558,30 @@
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>477497810</v>
+        <v>491911433</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1597,31 +1589,25 @@
       <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="I15" t="s">
-        <v>65</v>
-      </c>
       <c r="J15" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" t="s">
         <v>80</v>
       </c>
-      <c r="M15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>491911433</v>
+        <v>493200949</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -1630,16 +1616,16 @@
         <v>28</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1647,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>493200949</v>
+        <v>493408279</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1655,14 +1641,20 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
       <c r="J17" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
         <v>86</v>
-      </c>
-      <c r="M17" t="s">
-        <v>56</v>
       </c>
       <c r="N17" t="s">
         <v>87</v>
@@ -1673,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>493408279</v>
+        <v>536635118</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1682,22 +1674,19 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
         <v>88</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
         <v>89</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="N18" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" t="s">
         <v>90</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
-      <c r="M18" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1708,99 +1697,70 @@
         <v>536635118</v>
       </c>
       <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>623659640</v>
+      </c>
+      <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>536635118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="I21" t="s">
         <v>97</v>
-      </c>
-      <c r="N20" t="s">
-        <v>56</v>
-      </c>
-      <c r="O20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" t="s">
-        <v>100</v>
-      </c>
-      <c r="P21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>623659640</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K18" r:id="rId1" display="https://dx.doi.org/10.1105%2Ftpc.108.061374"/>
+    <hyperlink ref="K17" r:id="rId1" display="https://dx.doi.org/10.1105%2Ftpc.108.061374"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
